--- a/다독 다독 기능 명세서.xlsx
+++ b/다독 다독 기능 명세서.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82106\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82106\Desktop\2학년 겨울방학\hicc 프젝대회\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE026E0F-A7A4-4627-B9C1-EA7D03FDED29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F87937-7680-406B-B50D-0EBA6230CC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{EE2D67E6-6FF2-4BB1-85BC-6ED010E8724E}"/>
   </bookViews>
@@ -641,7 +641,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -654,32 +654,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1017,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE8740A-A7F0-4A0B-A36E-DAA4184036C5}">
   <dimension ref="A1:J209"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1028,7 +1016,7 @@
     <col min="4" max="4" width="31.69921875" customWidth="1"/>
     <col min="5" max="5" width="32.3984375" customWidth="1"/>
     <col min="6" max="6" width="25.3984375" customWidth="1"/>
-    <col min="7" max="7" width="46.296875" customWidth="1"/>
+    <col min="7" max="7" width="96.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
@@ -1045,14 +1033,14 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1083,7 +1071,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1103,7 +1091,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="11"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1121,7 +1109,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="11"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1141,7 +1129,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="11"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
         <v>16</v>
@@ -1161,7 +1149,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="11"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
         <v>20</v>
@@ -1179,7 +1167,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1201,17 +1189,17 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -1223,13 +1211,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="5"/>
       <c r="G11" s="2" t="s">
         <v>33</v>
       </c>
@@ -1239,20 +1227,20 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
         <v>92</v>
       </c>
       <c r="H12" s="1"/>
@@ -1261,14 +1249,14 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="3" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
         <v>94</v>
       </c>
       <c r="H13" s="1"/>
@@ -1277,16 +1265,16 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
         <v>97</v>
       </c>
       <c r="H14" s="1"/>
@@ -1295,16 +1283,16 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
         <v>100</v>
       </c>
       <c r="H15" s="1"/>
@@ -1313,14 +1301,14 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="3" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3" t="s">
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="s">
         <v>102</v>
       </c>
       <c r="H16" s="1"/>
@@ -1329,14 +1317,14 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="3" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3" t="s">
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
         <v>63</v>
       </c>
       <c r="H17" s="1"/>
@@ -1345,14 +1333,14 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="3" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3" t="s">
+      <c r="F18" s="2"/>
+      <c r="G18" s="2" t="s">
         <v>105</v>
       </c>
       <c r="H18" s="1"/>
@@ -1361,16 +1349,16 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3" t="s">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2" t="s">
         <v>108</v>
       </c>
       <c r="H19" s="1"/>
@@ -1379,16 +1367,16 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3" t="s">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2" t="s">
         <v>111</v>
       </c>
       <c r="H20" s="1"/>
@@ -1397,14 +1385,14 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="3" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3" t="s">
+      <c r="F21" s="2"/>
+      <c r="G21" s="2" t="s">
         <v>113</v>
       </c>
       <c r="H21" s="1"/>
@@ -1413,16 +1401,16 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4" t="s">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H22" s="1"/>
@@ -1431,14 +1419,14 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="3" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H23" s="1"/>
@@ -1447,16 +1435,16 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3" t="s">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2" t="s">
         <v>121</v>
       </c>
       <c r="H24" s="1"/>
@@ -1465,14 +1453,14 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="3" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3" t="s">
+      <c r="F25" s="2"/>
+      <c r="G25" s="2" t="s">
         <v>123</v>
       </c>
       <c r="H25" s="1"/>
@@ -1481,14 +1469,14 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="3" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3" t="s">
+      <c r="F26" s="2"/>
+      <c r="G26" s="2" t="s">
         <v>125</v>
       </c>
       <c r="H26" s="1"/>
@@ -1497,7 +1485,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -1521,7 +1509,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
-      <c r="B28" s="9"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="3"/>
       <c r="D28" s="2" t="s">
         <v>40</v>
@@ -1539,7 +1527,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
-      <c r="B29" s="9"/>
+      <c r="B29" s="8"/>
       <c r="C29" s="2" t="s">
         <v>43</v>
       </c>
@@ -1559,7 +1547,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
-      <c r="B30" s="10"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
         <v>47</v>
@@ -1575,20 +1563,20 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11" t="s">
+      <c r="F31" s="5"/>
+      <c r="G31" s="5" t="s">
         <v>54</v>
       </c>
       <c r="H31" s="1"/>
@@ -1597,21 +1585,21 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="11"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="5"/>
       <c r="D32" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="9"/>
+      <c r="B33" s="8"/>
       <c r="C33" s="2" t="s">
         <v>55</v>
       </c>
@@ -1631,7 +1619,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="10"/>
+      <c r="B34" s="7"/>
       <c r="C34" s="2" t="s">
         <v>59</v>
       </c>
@@ -1649,7 +1637,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="6" t="s">
         <v>62</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -1669,7 +1657,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
-      <c r="B36" s="10"/>
+      <c r="B36" s="7"/>
       <c r="C36" s="2" t="s">
         <v>66</v>
       </c>
@@ -1691,7 +1679,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="6" t="s">
         <v>71</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -1704,7 +1692,7 @@
         <v>74</v>
       </c>
       <c r="F37" s="2"/>
-      <c r="G37" s="11" t="s">
+      <c r="G37" s="5" t="s">
         <v>75</v>
       </c>
       <c r="H37" s="1"/>
@@ -1713,7 +1701,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
-      <c r="B38" s="10"/>
+      <c r="B38" s="7"/>
       <c r="C38" s="2" t="s">
         <v>76</v>
       </c>
@@ -1722,14 +1710,14 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="11"/>
+      <c r="G38" s="5"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="6" t="s">
         <v>78</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -1751,7 +1739,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
-      <c r="B40" s="10"/>
+      <c r="B40" s="7"/>
       <c r="C40" s="2" t="s">
         <v>83</v>
       </c>
@@ -3739,23 +3727,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B12:B26"/>
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="D24:D26"/>
@@ -3765,6 +3736,23 @@
     <mergeCell ref="D15:D18"/>
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="D20:D23"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B12:B26"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/다독 다독 기능 명세서.xlsx
+++ b/다독 다독 기능 명세서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82106\Desktop\2학년 겨울방학\hicc 프젝대회\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F87937-7680-406B-B50D-0EBA6230CC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AB74B9-FCEE-4B93-A0CB-338B0BA57155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{EE2D67E6-6FF2-4BB1-85BC-6ED010E8724E}"/>
   </bookViews>
@@ -655,9 +655,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -668,6 +665,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1005,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE8740A-A7F0-4A0B-A36E-DAA4184036C5}">
   <dimension ref="A1:J209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1033,14 +1033,14 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1091,7 +1091,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="5"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="5"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="5"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
         <v>16</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="5"/>
+      <c r="B8" s="4"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
         <v>20</v>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1189,17 +1189,17 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -1211,13 +1211,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="4"/>
       <c r="G11" s="2" t="s">
         <v>33</v>
       </c>
@@ -1227,13 +1227,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -1249,9 +1249,9 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="2" t="s">
         <v>93</v>
       </c>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="5"/>
+      <c r="B14" s="4"/>
       <c r="C14" s="2" t="s">
         <v>95</v>
       </c>
@@ -1283,11 +1283,11 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>99</v>
       </c>
       <c r="E15" s="2"/>
@@ -1301,9 +1301,9 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="2" t="s">
         <v>101</v>
       </c>
@@ -1317,9 +1317,9 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="2" t="s">
         <v>103</v>
       </c>
@@ -1333,9 +1333,9 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
       <c r="E18" s="2" t="s">
         <v>104</v>
       </c>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="5"/>
+      <c r="B19" s="4"/>
       <c r="C19" s="2" t="s">
         <v>106</v>
       </c>
@@ -1367,11 +1367,11 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>110</v>
       </c>
       <c r="E20" s="2"/>
@@ -1385,9 +1385,9 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
       <c r="E21" s="2" t="s">
         <v>112</v>
       </c>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5" t="s">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4" t="s">
         <v>114</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -1419,10 +1419,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="2" t="s">
         <v>117</v>
       </c>
@@ -1435,11 +1435,11 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5" t="s">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E24" s="2"/>
@@ -1453,9 +1453,9 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
       <c r="E25" s="2" t="s">
         <v>122</v>
       </c>
@@ -1469,9 +1469,9 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
       <c r="E26" s="2" t="s">
         <v>124</v>
       </c>
@@ -1485,10 +1485,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -1509,8 +1509,8 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="3"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="6"/>
       <c r="D28" s="2" t="s">
         <v>40</v>
       </c>
@@ -1527,8 +1527,8 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="2" t="s">
+      <c r="B29" s="7"/>
+      <c r="C29" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -1547,8 +1547,8 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="2"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="2" t="s">
         <v>47</v>
       </c>
@@ -1563,20 +1563,20 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5" t="s">
+      <c r="F31" s="4"/>
+      <c r="G31" s="4" t="s">
         <v>54</v>
       </c>
       <c r="H31" s="1"/>
@@ -1585,21 +1585,21 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="5"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="4"/>
       <c r="D32" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="8"/>
+      <c r="B33" s="7"/>
       <c r="C33" s="2" t="s">
         <v>55</v>
       </c>
@@ -1619,7 +1619,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="7"/>
+      <c r="B34" s="6"/>
       <c r="C34" s="2" t="s">
         <v>59</v>
       </c>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -1657,7 +1657,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
-      <c r="B36" s="7"/>
+      <c r="B36" s="6"/>
       <c r="C36" s="2" t="s">
         <v>66</v>
       </c>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>71</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -1692,7 +1692,7 @@
         <v>74</v>
       </c>
       <c r="F37" s="2"/>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="4" t="s">
         <v>75</v>
       </c>
       <c r="H37" s="1"/>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
-      <c r="B38" s="7"/>
+      <c r="B38" s="6"/>
       <c r="C38" s="2" t="s">
         <v>76</v>
       </c>
@@ -1710,14 +1710,14 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="5"/>
+      <c r="G38" s="4"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>78</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -1739,7 +1739,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
-      <c r="B40" s="7"/>
+      <c r="B40" s="6"/>
       <c r="C40" s="2" t="s">
         <v>83</v>
       </c>
@@ -3726,7 +3726,26 @@
       <c r="G209" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="28">
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B12:B26"/>
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="D24:D26"/>
@@ -3736,23 +3755,6 @@
     <mergeCell ref="D15:D18"/>
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="D20:D23"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B12:B26"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B9:B11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
